--- a/data/raw/election/voters-age-sex-education/2023/Edirne.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Edirne.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:37:05-77508255614" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="38">
   <si>
     <t>Edirne</t>
   </si>
@@ -128,6 +127,12 @@
   </si>
   <si>
     <t>Uzunköprü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -661,7 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -675,16 +680,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1009,10 +1023,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:A240"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,24 +1042,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1127,14 +1141,14 @@
       <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
-        <v>1.3480000000000001</v>
-      </c>
-      <c r="H6" s="4">
-        <v>5.0010000000000003</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.1970000000000001</v>
+      <c r="G6" s="5">
+        <v>1348</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5001</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1197</v>
       </c>
       <c r="J6" s="4">
         <v>11</v>
@@ -1145,8 +1159,8 @@
       <c r="L6" s="4">
         <v>37</v>
       </c>
-      <c r="M6" s="5">
-        <v>7.6609999999999996</v>
+      <c r="M6" s="6">
+        <v>7661</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1166,14 +1180,14 @@
       <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="4">
-        <v>1.196</v>
-      </c>
-      <c r="H7" s="4">
-        <v>4.5190000000000001</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.591</v>
+      <c r="G7" s="5">
+        <v>1196</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4519</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1591</v>
       </c>
       <c r="J7" s="4">
         <v>28</v>
@@ -1184,8 +1198,8 @@
       <c r="L7" s="4">
         <v>24</v>
       </c>
-      <c r="M7" s="5">
-        <v>7.46</v>
+      <c r="M7" s="6">
+        <v>7460</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1210,11 +1224,11 @@
       <c r="G8" s="4">
         <v>880</v>
       </c>
-      <c r="H8" s="4">
-        <v>2.395</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2.9340000000000002</v>
+      <c r="H8" s="5">
+        <v>2395</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2934</v>
       </c>
       <c r="J8" s="4">
         <v>365</v>
@@ -1225,8 +1239,8 @@
       <c r="L8" s="4">
         <v>24</v>
       </c>
-      <c r="M8" s="5">
-        <v>6.7119999999999997</v>
+      <c r="M8" s="6">
+        <v>6712</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1249,11 +1263,11 @@
       <c r="G9" s="4">
         <v>710</v>
       </c>
-      <c r="H9" s="4">
-        <v>1.454</v>
-      </c>
-      <c r="I9" s="4">
-        <v>3.4319999999999999</v>
+      <c r="H9" s="5">
+        <v>1454</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3432</v>
       </c>
       <c r="J9" s="4">
         <v>488</v>
@@ -1264,8 +1278,8 @@
       <c r="L9" s="4">
         <v>31</v>
       </c>
-      <c r="M9" s="5">
-        <v>6.3419999999999996</v>
+      <c r="M9" s="6">
+        <v>6342</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1290,11 +1304,11 @@
       <c r="G10" s="4">
         <v>473</v>
       </c>
-      <c r="H10" s="4">
-        <v>2.2330000000000001</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2.843</v>
+      <c r="H10" s="5">
+        <v>2233</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2843</v>
       </c>
       <c r="J10" s="4">
         <v>453</v>
@@ -1305,8 +1319,8 @@
       <c r="L10" s="4">
         <v>28</v>
       </c>
-      <c r="M10" s="5">
-        <v>6.7309999999999999</v>
+      <c r="M10" s="6">
+        <v>6731</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1329,11 +1343,11 @@
       <c r="G11" s="4">
         <v>338</v>
       </c>
-      <c r="H11" s="4">
-        <v>1.6120000000000001</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3.0750000000000002</v>
+      <c r="H11" s="5">
+        <v>1612</v>
+      </c>
+      <c r="I11" s="5">
+        <v>3075</v>
       </c>
       <c r="J11" s="4">
         <v>543</v>
@@ -1344,8 +1358,8 @@
       <c r="L11" s="4">
         <v>63</v>
       </c>
-      <c r="M11" s="5">
-        <v>6.4039999999999999</v>
+      <c r="M11" s="6">
+        <v>6404</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1370,11 +1384,11 @@
       <c r="G12" s="4">
         <v>446</v>
       </c>
-      <c r="H12" s="4">
-        <v>2.149</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2.496</v>
+      <c r="H12" s="5">
+        <v>2149</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2496</v>
       </c>
       <c r="J12" s="4">
         <v>411</v>
@@ -1385,8 +1399,8 @@
       <c r="L12" s="4">
         <v>29</v>
       </c>
-      <c r="M12" s="5">
-        <v>6.6639999999999997</v>
+      <c r="M12" s="6">
+        <v>6664</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1409,11 +1423,11 @@
       <c r="G13" s="4">
         <v>436</v>
       </c>
-      <c r="H13" s="4">
-        <v>1.9630000000000001</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2.4119999999999999</v>
+      <c r="H13" s="5">
+        <v>1963</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2412</v>
       </c>
       <c r="J13" s="4">
         <v>473</v>
@@ -1424,8 +1438,8 @@
       <c r="L13" s="4">
         <v>45</v>
       </c>
-      <c r="M13" s="5">
-        <v>6.6150000000000002</v>
+      <c r="M13" s="6">
+        <v>6615</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1450,11 +1464,11 @@
       <c r="G14" s="4">
         <v>957</v>
       </c>
-      <c r="H14" s="4">
-        <v>2.4239999999999999</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1.923</v>
+      <c r="H14" s="5">
+        <v>2424</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1923</v>
       </c>
       <c r="J14" s="4">
         <v>396</v>
@@ -1465,8 +1479,8 @@
       <c r="L14" s="4">
         <v>34</v>
       </c>
-      <c r="M14" s="5">
-        <v>7.093</v>
+      <c r="M14" s="6">
+        <v>7093</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1489,11 +1503,11 @@
       <c r="G15" s="4">
         <v>785</v>
       </c>
-      <c r="H15" s="4">
-        <v>2.1909999999999998</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.972</v>
+      <c r="H15" s="5">
+        <v>2191</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1972</v>
       </c>
       <c r="J15" s="4">
         <v>391</v>
@@ -1504,8 +1518,8 @@
       <c r="L15" s="4">
         <v>49</v>
       </c>
-      <c r="M15" s="5">
-        <v>7.0430000000000001</v>
+      <c r="M15" s="6">
+        <v>7043</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1530,11 +1544,11 @@
       <c r="G16" s="4">
         <v>886</v>
       </c>
-      <c r="H16" s="4">
-        <v>2.0179999999999998</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.5780000000000001</v>
+      <c r="H16" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1578</v>
       </c>
       <c r="J16" s="4">
         <v>252</v>
@@ -1545,8 +1559,8 @@
       <c r="L16" s="4">
         <v>42</v>
       </c>
-      <c r="M16" s="5">
-        <v>6.3490000000000002</v>
+      <c r="M16" s="6">
+        <v>6349</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1560,8 +1574,8 @@
       <c r="D17" s="4">
         <v>50</v>
       </c>
-      <c r="E17" s="4">
-        <v>1.012</v>
+      <c r="E17" s="5">
+        <v>1012</v>
       </c>
       <c r="F17" s="4">
         <v>952</v>
@@ -1569,11 +1583,11 @@
       <c r="G17" s="4">
         <v>874</v>
       </c>
-      <c r="H17" s="4">
-        <v>1.895</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1.403</v>
+      <c r="H17" s="5">
+        <v>1895</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1403</v>
       </c>
       <c r="J17" s="4">
         <v>195</v>
@@ -1584,8 +1598,8 @@
       <c r="L17" s="4">
         <v>47</v>
       </c>
-      <c r="M17" s="5">
-        <v>6.5860000000000003</v>
+      <c r="M17" s="6">
+        <v>6586</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1610,11 +1624,11 @@
       <c r="G18" s="4">
         <v>980</v>
       </c>
-      <c r="H18" s="4">
-        <v>1.5469999999999999</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.2330000000000001</v>
+      <c r="H18" s="5">
+        <v>1547</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1233</v>
       </c>
       <c r="J18" s="4">
         <v>166</v>
@@ -1625,8 +1639,8 @@
       <c r="L18" s="4">
         <v>46</v>
       </c>
-      <c r="M18" s="5">
-        <v>5.6580000000000004</v>
+      <c r="M18" s="6">
+        <v>5658</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1640,8 +1654,8 @@
       <c r="D19" s="4">
         <v>75</v>
       </c>
-      <c r="E19" s="4">
-        <v>1.2969999999999999</v>
+      <c r="E19" s="5">
+        <v>1297</v>
       </c>
       <c r="F19" s="4">
         <v>903</v>
@@ -1649,8 +1663,8 @@
       <c r="G19" s="4">
         <v>864</v>
       </c>
-      <c r="H19" s="4">
-        <v>1.4510000000000001</v>
+      <c r="H19" s="5">
+        <v>1451</v>
       </c>
       <c r="I19" s="4">
         <v>948</v>
@@ -1664,8 +1678,8 @@
       <c r="L19" s="4">
         <v>63</v>
       </c>
-      <c r="M19" s="5">
-        <v>5.8810000000000002</v>
+      <c r="M19" s="6">
+        <v>5881</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1681,8 +1695,8 @@
       <c r="D20" s="4">
         <v>20</v>
       </c>
-      <c r="E20" s="4">
-        <v>1.002</v>
+      <c r="E20" s="5">
+        <v>1002</v>
       </c>
       <c r="F20" s="4">
         <v>845</v>
@@ -1690,11 +1704,11 @@
       <c r="G20" s="4">
         <v>894</v>
       </c>
-      <c r="H20" s="4">
-        <v>1.44</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1.004</v>
+      <c r="H20" s="5">
+        <v>1440</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1004</v>
       </c>
       <c r="J20" s="4">
         <v>132</v>
@@ -1705,8 +1719,8 @@
       <c r="L20" s="4">
         <v>76</v>
       </c>
-      <c r="M20" s="5">
-        <v>5.5430000000000001</v>
+      <c r="M20" s="6">
+        <v>5543</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1720,8 +1734,8 @@
       <c r="D21" s="4">
         <v>113</v>
       </c>
-      <c r="E21" s="4">
-        <v>2.044</v>
+      <c r="E21" s="5">
+        <v>2044</v>
       </c>
       <c r="F21" s="4">
         <v>641</v>
@@ -1729,8 +1743,8 @@
       <c r="G21" s="4">
         <v>740</v>
       </c>
-      <c r="H21" s="4">
-        <v>1.3240000000000001</v>
+      <c r="H21" s="5">
+        <v>1324</v>
       </c>
       <c r="I21" s="4">
         <v>713</v>
@@ -1744,8 +1758,8 @@
       <c r="L21" s="4">
         <v>58</v>
       </c>
-      <c r="M21" s="5">
-        <v>5.8730000000000002</v>
+      <c r="M21" s="6">
+        <v>5873</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1761,8 +1775,8 @@
       <c r="D22" s="4">
         <v>44</v>
       </c>
-      <c r="E22" s="4">
-        <v>1.63</v>
+      <c r="E22" s="5">
+        <v>1630</v>
       </c>
       <c r="F22" s="4">
         <v>473</v>
@@ -1770,8 +1784,8 @@
       <c r="G22" s="4">
         <v>632</v>
       </c>
-      <c r="H22" s="4">
-        <v>1.377</v>
+      <c r="H22" s="5">
+        <v>1377</v>
       </c>
       <c r="I22" s="4">
         <v>797</v>
@@ -1785,8 +1799,8 @@
       <c r="L22" s="4">
         <v>58</v>
       </c>
-      <c r="M22" s="5">
-        <v>5.194</v>
+      <c r="M22" s="6">
+        <v>5194</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1800,8 +1814,8 @@
       <c r="D23" s="4">
         <v>152</v>
       </c>
-      <c r="E23" s="4">
-        <v>2.8090000000000002</v>
+      <c r="E23" s="5">
+        <v>2809</v>
       </c>
       <c r="F23" s="4">
         <v>360</v>
@@ -1809,8 +1823,8 @@
       <c r="G23" s="4">
         <v>480</v>
       </c>
-      <c r="H23" s="4">
-        <v>1.161</v>
+      <c r="H23" s="5">
+        <v>1161</v>
       </c>
       <c r="I23" s="4">
         <v>512</v>
@@ -1824,8 +1838,8 @@
       <c r="L23" s="4">
         <v>58</v>
       </c>
-      <c r="M23" s="5">
-        <v>5.74</v>
+      <c r="M23" s="6">
+        <v>5740</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1841,8 +1855,8 @@
       <c r="D24" s="4">
         <v>76</v>
       </c>
-      <c r="E24" s="4">
-        <v>1.9350000000000001</v>
+      <c r="E24" s="5">
+        <v>1935</v>
       </c>
       <c r="F24" s="4">
         <v>183</v>
@@ -1865,8 +1879,8 @@
       <c r="L24" s="4">
         <v>58</v>
       </c>
-      <c r="M24" s="5">
-        <v>4.444</v>
+      <c r="M24" s="6">
+        <v>4444</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1880,8 +1894,8 @@
       <c r="D25" s="4">
         <v>195</v>
       </c>
-      <c r="E25" s="4">
-        <v>2.847</v>
+      <c r="E25" s="5">
+        <v>2847</v>
       </c>
       <c r="F25" s="4">
         <v>166</v>
@@ -1904,8 +1918,8 @@
       <c r="L25" s="4">
         <v>41</v>
       </c>
-      <c r="M25" s="5">
-        <v>4.9020000000000001</v>
+      <c r="M25" s="6">
+        <v>4902</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1921,8 +1935,8 @@
       <c r="D26" s="4">
         <v>64</v>
       </c>
-      <c r="E26" s="4">
-        <v>1.5009999999999999</v>
+      <c r="E26" s="5">
+        <v>1501</v>
       </c>
       <c r="F26" s="4">
         <v>59</v>
@@ -1945,8 +1959,8 @@
       <c r="L26" s="4">
         <v>43</v>
       </c>
-      <c r="M26" s="5">
-        <v>2.952</v>
+      <c r="M26" s="6">
+        <v>2952</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1960,8 +1974,8 @@
       <c r="D27" s="4">
         <v>222</v>
       </c>
-      <c r="E27" s="4">
-        <v>1.9059999999999999</v>
+      <c r="E27" s="5">
+        <v>1906</v>
       </c>
       <c r="F27" s="4">
         <v>28</v>
@@ -1984,8 +1998,8 @@
       <c r="L27" s="4">
         <v>54</v>
       </c>
-      <c r="M27" s="5">
-        <v>3.2440000000000002</v>
+      <c r="M27" s="6">
+        <v>3244</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2001,8 +2015,8 @@
       <c r="D28" s="4">
         <v>148</v>
       </c>
-      <c r="E28" s="4">
-        <v>1.5880000000000001</v>
+      <c r="E28" s="5">
+        <v>1588</v>
       </c>
       <c r="F28" s="4">
         <v>18</v>
@@ -2025,8 +2039,8 @@
       <c r="L28" s="4">
         <v>48</v>
       </c>
-      <c r="M28" s="5">
-        <v>2.851</v>
+      <c r="M28" s="6">
+        <v>2851</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2040,8 +2054,8 @@
       <c r="D29" s="4">
         <v>580</v>
       </c>
-      <c r="E29" s="4">
-        <v>2.4249999999999998</v>
+      <c r="E29" s="5">
+        <v>2425</v>
       </c>
       <c r="F29" s="4">
         <v>12</v>
@@ -2064,47 +2078,47 @@
       <c r="L29" s="4">
         <v>68</v>
       </c>
-      <c r="M29" s="5">
-        <v>4.3810000000000002</v>
+      <c r="M29" s="6">
+        <v>4381</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>1.631</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2.1589999999999998</v>
-      </c>
-      <c r="E30" s="5">
-        <v>25.172999999999998</v>
-      </c>
-      <c r="F30" s="5">
-        <v>10.726000000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <v>15.75</v>
-      </c>
-      <c r="H30" s="5">
-        <v>40.889000000000003</v>
-      </c>
-      <c r="I30" s="5">
-        <v>34.594999999999999</v>
-      </c>
-      <c r="J30" s="5">
-        <v>4.7779999999999996</v>
-      </c>
-      <c r="K30" s="5">
-        <v>1.498</v>
-      </c>
-      <c r="L30" s="5">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="M30" s="5">
-        <v>138.32300000000001</v>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>1631</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2159</v>
+      </c>
+      <c r="E30" s="6">
+        <v>25173</v>
+      </c>
+      <c r="F30" s="6">
+        <v>10726</v>
+      </c>
+      <c r="G30" s="6">
+        <v>15750</v>
+      </c>
+      <c r="H30" s="6">
+        <v>40889</v>
+      </c>
+      <c r="I30" s="6">
+        <v>34595</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4778</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1498</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1124</v>
+      </c>
+      <c r="M30" s="6">
+        <v>138323</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2183,7 +2197,7 @@
       <c r="L32" s="4">
         <v>6</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="9">
         <v>369</v>
       </c>
     </row>
@@ -2222,7 +2236,7 @@
       <c r="L33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="9">
         <v>360</v>
       </c>
     </row>
@@ -2263,7 +2277,7 @@
       <c r="L34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="9">
         <v>332</v>
       </c>
     </row>
@@ -2302,7 +2316,7 @@
       <c r="L35" s="4">
         <v>2</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="9">
         <v>254</v>
       </c>
     </row>
@@ -2343,7 +2357,7 @@
       <c r="L36" s="4">
         <v>2</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="9">
         <v>315</v>
       </c>
     </row>
@@ -2382,7 +2396,7 @@
       <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="9">
         <v>248</v>
       </c>
     </row>
@@ -2423,7 +2437,7 @@
       <c r="L38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="9">
         <v>283</v>
       </c>
     </row>
@@ -2462,7 +2476,7 @@
       <c r="L39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="9">
         <v>228</v>
       </c>
     </row>
@@ -2503,7 +2517,7 @@
       <c r="L40" s="4">
         <v>1</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="9">
         <v>299</v>
       </c>
     </row>
@@ -2542,7 +2556,7 @@
       <c r="L41" s="4">
         <v>2</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="9">
         <v>272</v>
       </c>
     </row>
@@ -2583,7 +2597,7 @@
       <c r="L42" s="4">
         <v>3</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="9">
         <v>389</v>
       </c>
     </row>
@@ -2622,7 +2636,7 @@
       <c r="L43" s="4">
         <v>2</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="9">
         <v>317</v>
       </c>
     </row>
@@ -2663,7 +2677,7 @@
       <c r="L44" s="4">
         <v>2</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="9">
         <v>422</v>
       </c>
     </row>
@@ -2702,7 +2716,7 @@
       <c r="L45" s="4">
         <v>3</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="9">
         <v>341</v>
       </c>
     </row>
@@ -2743,7 +2757,7 @@
       <c r="L46" s="4">
         <v>1</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="9">
         <v>462</v>
       </c>
     </row>
@@ -2782,7 +2796,7 @@
       <c r="L47" s="4">
         <v>1</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="9">
         <v>466</v>
       </c>
     </row>
@@ -2823,7 +2837,7 @@
       <c r="L48" s="4">
         <v>7</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="9">
         <v>503</v>
       </c>
     </row>
@@ -2862,7 +2876,7 @@
       <c r="L49" s="4">
         <v>3</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="9">
         <v>504</v>
       </c>
     </row>
@@ -2903,7 +2917,7 @@
       <c r="L50" s="4">
         <v>5</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="9">
         <v>471</v>
       </c>
     </row>
@@ -2942,7 +2956,7 @@
       <c r="L51" s="4">
         <v>4</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="9">
         <v>474</v>
       </c>
     </row>
@@ -2983,7 +2997,7 @@
       <c r="L52" s="4">
         <v>7</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="9">
         <v>309</v>
       </c>
     </row>
@@ -3022,7 +3036,7 @@
       <c r="L53" s="4">
         <v>3</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="9">
         <v>374</v>
       </c>
     </row>
@@ -3063,7 +3077,7 @@
       <c r="L54" s="4">
         <v>6</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="9">
         <v>440</v>
       </c>
     </row>
@@ -3102,7 +3116,7 @@
       <c r="L55" s="4">
         <v>4</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="9">
         <v>560</v>
       </c>
     </row>
@@ -3110,39 +3124,39 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="9">
         <v>263</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="9">
         <v>464</v>
       </c>
-      <c r="E56" s="5">
-        <v>3.452</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E56" s="6">
+        <v>3452</v>
+      </c>
+      <c r="F56" s="9">
         <v>789</v>
       </c>
-      <c r="G56" s="5">
-        <v>1.06</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1.82</v>
-      </c>
-      <c r="I56" s="5">
+      <c r="G56" s="6">
+        <v>1060</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1820</v>
+      </c>
+      <c r="I56" s="9">
         <v>987</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="9">
         <v>89</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="9">
         <v>3</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="9">
         <v>65</v>
       </c>
-      <c r="M56" s="5">
-        <v>8.9920000000000009</v>
+      <c r="M56" s="6">
+        <v>8992</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3221,7 +3235,7 @@
       <c r="L58" s="4">
         <v>5</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="9">
         <v>658</v>
       </c>
     </row>
@@ -3260,7 +3274,7 @@
       <c r="L59" s="4">
         <v>1</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="9">
         <v>555</v>
       </c>
     </row>
@@ -3301,7 +3315,7 @@
       <c r="L60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="9">
         <v>530</v>
       </c>
     </row>
@@ -3340,7 +3354,7 @@
       <c r="L61" s="4">
         <v>1</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="9">
         <v>422</v>
       </c>
     </row>
@@ -3381,7 +3395,7 @@
       <c r="L62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="9">
         <v>470</v>
       </c>
     </row>
@@ -3420,7 +3434,7 @@
       <c r="L63" s="4">
         <v>4</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="9">
         <v>346</v>
       </c>
     </row>
@@ -3461,7 +3475,7 @@
       <c r="L64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="9">
         <v>470</v>
       </c>
     </row>
@@ -3500,7 +3514,7 @@
       <c r="L65" s="4">
         <v>3</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="9">
         <v>417</v>
       </c>
     </row>
@@ -3541,7 +3555,7 @@
       <c r="L66" s="4">
         <v>3</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="9">
         <v>591</v>
       </c>
     </row>
@@ -3580,7 +3594,7 @@
       <c r="L67" s="4">
         <v>3</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="9">
         <v>504</v>
       </c>
     </row>
@@ -3621,7 +3635,7 @@
       <c r="L68" s="4">
         <v>4</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="9">
         <v>597</v>
       </c>
     </row>
@@ -3660,7 +3674,7 @@
       <c r="L69" s="4">
         <v>6</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="9">
         <v>606</v>
       </c>
     </row>
@@ -3701,7 +3715,7 @@
       <c r="L70" s="4">
         <v>6</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="9">
         <v>673</v>
       </c>
     </row>
@@ -3740,7 +3754,7 @@
       <c r="L71" s="4">
         <v>4</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="9">
         <v>657</v>
       </c>
     </row>
@@ -3781,7 +3795,7 @@
       <c r="L72" s="4">
         <v>5</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="9">
         <v>784</v>
       </c>
     </row>
@@ -3820,7 +3834,7 @@
       <c r="L73" s="4">
         <v>6</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="9">
         <v>780</v>
       </c>
     </row>
@@ -3861,7 +3875,7 @@
       <c r="L74" s="4">
         <v>7</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="9">
         <v>893</v>
       </c>
     </row>
@@ -3900,7 +3914,7 @@
       <c r="L75" s="4">
         <v>10</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="9">
         <v>902</v>
       </c>
     </row>
@@ -3941,7 +3955,7 @@
       <c r="L76" s="4">
         <v>8</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="9">
         <v>833</v>
       </c>
     </row>
@@ -3980,7 +3994,7 @@
       <c r="L77" s="4">
         <v>3</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="9">
         <v>875</v>
       </c>
     </row>
@@ -4021,7 +4035,7 @@
       <c r="L78" s="4">
         <v>4</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="9">
         <v>572</v>
       </c>
     </row>
@@ -4060,7 +4074,7 @@
       <c r="L79" s="4">
         <v>5</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="9">
         <v>603</v>
       </c>
     </row>
@@ -4101,7 +4115,7 @@
       <c r="L80" s="4">
         <v>10</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="9">
         <v>649</v>
       </c>
     </row>
@@ -4140,7 +4154,7 @@
       <c r="L81" s="4">
         <v>9</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="9">
         <v>980</v>
       </c>
     </row>
@@ -4148,39 +4162,39 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="9">
         <v>294</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="9">
         <v>633</v>
       </c>
-      <c r="E82" s="5">
-        <v>5.9889999999999999</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1.3069999999999999</v>
-      </c>
-      <c r="G82" s="5">
-        <v>1.917</v>
-      </c>
-      <c r="H82" s="5">
-        <v>3.3380000000000001</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1.631</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="E82" s="6">
+        <v>5989</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1307</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1917</v>
+      </c>
+      <c r="H82" s="6">
+        <v>3338</v>
+      </c>
+      <c r="I82" s="6">
+        <v>1631</v>
+      </c>
+      <c r="J82" s="9">
         <v>137</v>
       </c>
-      <c r="K82" s="5">
-        <v>14</v>
-      </c>
-      <c r="L82" s="5">
+      <c r="K82" s="9">
+        <v>14</v>
+      </c>
+      <c r="L82" s="9">
         <v>107</v>
       </c>
-      <c r="M82" s="5">
-        <v>15.367000000000001</v>
+      <c r="M82" s="6">
+        <v>15367</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4259,8 +4273,8 @@
       <c r="L84" s="4">
         <v>13</v>
       </c>
-      <c r="M84" s="5">
-        <v>1.042</v>
+      <c r="M84" s="6">
+        <v>1042</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4298,7 +4312,7 @@
       <c r="L85" s="4">
         <v>1</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="9">
         <v>891</v>
       </c>
     </row>
@@ -4339,7 +4353,7 @@
       <c r="L86" s="4">
         <v>2</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="9">
         <v>783</v>
       </c>
     </row>
@@ -4378,7 +4392,7 @@
       <c r="L87" s="4">
         <v>3</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="9">
         <v>689</v>
       </c>
     </row>
@@ -4419,7 +4433,7 @@
       <c r="L88" s="4">
         <v>2</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="9">
         <v>771</v>
       </c>
     </row>
@@ -4458,7 +4472,7 @@
       <c r="L89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="9">
         <v>627</v>
       </c>
     </row>
@@ -4499,7 +4513,7 @@
       <c r="L90" s="4">
         <v>3</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="9">
         <v>864</v>
       </c>
     </row>
@@ -4538,7 +4552,7 @@
       <c r="L91" s="4">
         <v>4</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="9">
         <v>733</v>
       </c>
     </row>
@@ -4579,7 +4593,7 @@
       <c r="L92" s="4">
         <v>2</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="9">
         <v>944</v>
       </c>
     </row>
@@ -4618,7 +4632,7 @@
       <c r="L93" s="4">
         <v>2</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="9">
         <v>742</v>
       </c>
     </row>
@@ -4659,7 +4673,7 @@
       <c r="L94" s="4">
         <v>3</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="9">
         <v>950</v>
       </c>
     </row>
@@ -4698,7 +4712,7 @@
       <c r="L95" s="4">
         <v>3</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="9">
         <v>815</v>
       </c>
     </row>
@@ -4739,7 +4753,7 @@
       <c r="L96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="9">
         <v>994</v>
       </c>
     </row>
@@ -4778,7 +4792,7 @@
       <c r="L97" s="4">
         <v>5</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="9">
         <v>931</v>
       </c>
     </row>
@@ -4819,8 +4833,8 @@
       <c r="L98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M98" s="5">
-        <v>1.0780000000000001</v>
+      <c r="M98" s="6">
+        <v>1078</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4858,8 +4872,8 @@
       <c r="L99" s="4">
         <v>3</v>
       </c>
-      <c r="M99" s="5">
-        <v>1.0640000000000001</v>
+      <c r="M99" s="6">
+        <v>1064</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4899,8 +4913,8 @@
       <c r="L100" s="4">
         <v>2</v>
       </c>
-      <c r="M100" s="5">
-        <v>1.097</v>
+      <c r="M100" s="6">
+        <v>1097</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4938,8 +4952,8 @@
       <c r="L101" s="4">
         <v>5</v>
       </c>
-      <c r="M101" s="5">
-        <v>1.0720000000000001</v>
+      <c r="M101" s="6">
+        <v>1072</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4979,7 +4993,7 @@
       <c r="L102" s="4">
         <v>6</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="9">
         <v>918</v>
       </c>
     </row>
@@ -5018,7 +5032,7 @@
       <c r="L103" s="4">
         <v>3</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="9">
         <v>943</v>
       </c>
     </row>
@@ -5059,7 +5073,7 @@
       <c r="L104" s="4">
         <v>1</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="9">
         <v>650</v>
       </c>
     </row>
@@ -5098,7 +5112,7 @@
       <c r="L105" s="4">
         <v>1</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="9">
         <v>717</v>
       </c>
     </row>
@@ -5139,7 +5153,7 @@
       <c r="L106" s="4">
         <v>1</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="9">
         <v>808</v>
       </c>
     </row>
@@ -5178,47 +5192,47 @@
       <c r="L107" s="4">
         <v>2</v>
       </c>
-      <c r="M107" s="5">
-        <v>1.1319999999999999</v>
+      <c r="M107" s="6">
+        <v>1132</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="9">
         <v>471</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="9">
         <v>900</v>
       </c>
-      <c r="E108" s="5">
-        <v>8.3490000000000002</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.804</v>
-      </c>
-      <c r="G108" s="5">
-        <v>3.1160000000000001</v>
-      </c>
-      <c r="H108" s="5">
-        <v>4.66</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1.764</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="E108" s="6">
+        <v>8349</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1804</v>
+      </c>
+      <c r="G108" s="6">
+        <v>3116</v>
+      </c>
+      <c r="H108" s="6">
+        <v>4660</v>
+      </c>
+      <c r="I108" s="6">
+        <v>1764</v>
+      </c>
+      <c r="J108" s="9">
         <v>114</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="9">
         <v>10</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="9">
         <v>67</v>
       </c>
-      <c r="M108" s="5">
-        <v>21.254999999999999</v>
+      <c r="M108" s="6">
+        <v>21255</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5282,8 +5296,8 @@
       <c r="G110" s="4">
         <v>900</v>
       </c>
-      <c r="H110" s="4">
-        <v>1.9</v>
+      <c r="H110" s="5">
+        <v>1900</v>
       </c>
       <c r="I110" s="4">
         <v>416</v>
@@ -5297,8 +5311,8 @@
       <c r="L110" s="4">
         <v>21</v>
       </c>
-      <c r="M110" s="5">
-        <v>3.32</v>
+      <c r="M110" s="6">
+        <v>3320</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5321,8 +5335,8 @@
       <c r="G111" s="4">
         <v>934</v>
       </c>
-      <c r="H111" s="4">
-        <v>1.6379999999999999</v>
+      <c r="H111" s="5">
+        <v>1638</v>
       </c>
       <c r="I111" s="4">
         <v>607</v>
@@ -5336,8 +5350,8 @@
       <c r="L111" s="4">
         <v>5</v>
       </c>
-      <c r="M111" s="5">
-        <v>3.31</v>
+      <c r="M111" s="6">
+        <v>3310</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5365,8 +5379,8 @@
       <c r="H112" s="4">
         <v>872</v>
       </c>
-      <c r="I112" s="4">
-        <v>1.028</v>
+      <c r="I112" s="5">
+        <v>1028</v>
       </c>
       <c r="J112" s="4">
         <v>75</v>
@@ -5377,8 +5391,8 @@
       <c r="L112" s="4">
         <v>9</v>
       </c>
-      <c r="M112" s="5">
-        <v>2.77</v>
+      <c r="M112" s="6">
+        <v>2770</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5404,8 +5418,8 @@
       <c r="H113" s="4">
         <v>563</v>
       </c>
-      <c r="I113" s="4">
-        <v>1.1679999999999999</v>
+      <c r="I113" s="5">
+        <v>1168</v>
       </c>
       <c r="J113" s="4">
         <v>95</v>
@@ -5416,8 +5430,8 @@
       <c r="L113" s="4">
         <v>6</v>
       </c>
-      <c r="M113" s="5">
-        <v>2.6789999999999998</v>
+      <c r="M113" s="6">
+        <v>2679</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5442,8 +5456,8 @@
       <c r="G114" s="4">
         <v>234</v>
       </c>
-      <c r="H114" s="4">
-        <v>1.0960000000000001</v>
+      <c r="H114" s="5">
+        <v>1096</v>
       </c>
       <c r="I114" s="4">
         <v>977</v>
@@ -5457,8 +5471,8 @@
       <c r="L114" s="4">
         <v>18</v>
       </c>
-      <c r="M114" s="5">
-        <v>2.9369999999999998</v>
+      <c r="M114" s="6">
+        <v>2937</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5496,8 +5510,8 @@
       <c r="L115" s="4">
         <v>17</v>
       </c>
-      <c r="M115" s="5">
-        <v>2.8140000000000001</v>
+      <c r="M115" s="6">
+        <v>2814</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5522,8 +5536,8 @@
       <c r="G116" s="4">
         <v>254</v>
       </c>
-      <c r="H116" s="4">
-        <v>1.131</v>
+      <c r="H116" s="5">
+        <v>1131</v>
       </c>
       <c r="I116" s="4">
         <v>822</v>
@@ -5537,8 +5551,8 @@
       <c r="L116" s="4">
         <v>14</v>
       </c>
-      <c r="M116" s="5">
-        <v>2.9990000000000001</v>
+      <c r="M116" s="6">
+        <v>2999</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5576,8 +5590,8 @@
       <c r="L117" s="4">
         <v>10</v>
       </c>
-      <c r="M117" s="5">
-        <v>2.8650000000000002</v>
+      <c r="M117" s="6">
+        <v>2865</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5602,8 +5616,8 @@
       <c r="G118" s="4">
         <v>479</v>
       </c>
-      <c r="H118" s="4">
-        <v>1.147</v>
+      <c r="H118" s="5">
+        <v>1147</v>
       </c>
       <c r="I118" s="4">
         <v>651</v>
@@ -5617,8 +5631,8 @@
       <c r="L118" s="4">
         <v>12</v>
       </c>
-      <c r="M118" s="5">
-        <v>3.0950000000000002</v>
+      <c r="M118" s="6">
+        <v>3095</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5641,8 +5655,8 @@
       <c r="G119" s="4">
         <v>444</v>
       </c>
-      <c r="H119" s="4">
-        <v>1.0249999999999999</v>
+      <c r="H119" s="5">
+        <v>1025</v>
       </c>
       <c r="I119" s="4">
         <v>599</v>
@@ -5656,8 +5670,8 @@
       <c r="L119" s="4">
         <v>21</v>
       </c>
-      <c r="M119" s="5">
-        <v>3.0459999999999998</v>
+      <c r="M119" s="6">
+        <v>3046</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5682,8 +5696,8 @@
       <c r="G120" s="4">
         <v>485</v>
       </c>
-      <c r="H120" s="4">
-        <v>1</v>
+      <c r="H120" s="5">
+        <v>1000</v>
       </c>
       <c r="I120" s="4">
         <v>510</v>
@@ -5697,8 +5711,8 @@
       <c r="L120" s="4">
         <v>8</v>
       </c>
-      <c r="M120" s="5">
-        <v>2.91</v>
+      <c r="M120" s="6">
+        <v>2910</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5736,8 +5750,8 @@
       <c r="L121" s="4">
         <v>10</v>
       </c>
-      <c r="M121" s="5">
-        <v>2.8730000000000002</v>
+      <c r="M121" s="6">
+        <v>2873</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5777,8 +5791,8 @@
       <c r="L122" s="4">
         <v>20</v>
       </c>
-      <c r="M122" s="5">
-        <v>2.7440000000000002</v>
+      <c r="M122" s="6">
+        <v>2744</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5816,8 +5830,8 @@
       <c r="L123" s="4">
         <v>21</v>
       </c>
-      <c r="M123" s="5">
-        <v>2.8149999999999999</v>
+      <c r="M123" s="6">
+        <v>2815</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5857,8 +5871,8 @@
       <c r="L124" s="4">
         <v>23</v>
       </c>
-      <c r="M124" s="5">
-        <v>2.827</v>
+      <c r="M124" s="6">
+        <v>2827</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5872,8 +5886,8 @@
       <c r="D125" s="4">
         <v>95</v>
       </c>
-      <c r="E125" s="4">
-        <v>1.3560000000000001</v>
+      <c r="E125" s="5">
+        <v>1356</v>
       </c>
       <c r="F125" s="4">
         <v>289</v>
@@ -5896,8 +5910,8 @@
       <c r="L125" s="4">
         <v>22</v>
       </c>
-      <c r="M125" s="5">
-        <v>2.964</v>
+      <c r="M125" s="6">
+        <v>2964</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5913,8 +5927,8 @@
       <c r="D126" s="4">
         <v>52</v>
       </c>
-      <c r="E126" s="4">
-        <v>1.123</v>
+      <c r="E126" s="5">
+        <v>1123</v>
       </c>
       <c r="F126" s="4">
         <v>241</v>
@@ -5937,8 +5951,8 @@
       <c r="L126" s="4">
         <v>20</v>
       </c>
-      <c r="M126" s="5">
-        <v>2.6869999999999998</v>
+      <c r="M126" s="6">
+        <v>2687</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5952,8 +5966,8 @@
       <c r="D127" s="4">
         <v>114</v>
       </c>
-      <c r="E127" s="4">
-        <v>1.6870000000000001</v>
+      <c r="E127" s="5">
+        <v>1687</v>
       </c>
       <c r="F127" s="4">
         <v>163</v>
@@ -5976,8 +5990,8 @@
       <c r="L127" s="4">
         <v>23</v>
       </c>
-      <c r="M127" s="5">
-        <v>2.9159999999999999</v>
+      <c r="M127" s="6">
+        <v>2916</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5993,8 +6007,8 @@
       <c r="D128" s="4">
         <v>64</v>
       </c>
-      <c r="E128" s="4">
-        <v>1.171</v>
+      <c r="E128" s="5">
+        <v>1171</v>
       </c>
       <c r="F128" s="4">
         <v>114</v>
@@ -6017,8 +6031,8 @@
       <c r="L128" s="4">
         <v>18</v>
       </c>
-      <c r="M128" s="5">
-        <v>2.2789999999999999</v>
+      <c r="M128" s="6">
+        <v>2279</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6032,8 +6046,8 @@
       <c r="D129" s="4">
         <v>168</v>
       </c>
-      <c r="E129" s="4">
-        <v>1.5549999999999999</v>
+      <c r="E129" s="5">
+        <v>1555</v>
       </c>
       <c r="F129" s="4">
         <v>75</v>
@@ -6056,8 +6070,8 @@
       <c r="L129" s="4">
         <v>18</v>
       </c>
-      <c r="M129" s="5">
-        <v>2.464</v>
+      <c r="M129" s="6">
+        <v>2464</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6073,8 +6087,8 @@
       <c r="D130" s="4">
         <v>81</v>
       </c>
-      <c r="E130" s="4">
-        <v>1.1140000000000001</v>
+      <c r="E130" s="5">
+        <v>1114</v>
       </c>
       <c r="F130" s="4">
         <v>43</v>
@@ -6097,8 +6111,8 @@
       <c r="L130" s="4">
         <v>17</v>
       </c>
-      <c r="M130" s="5">
-        <v>1.774</v>
+      <c r="M130" s="6">
+        <v>1774</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6112,8 +6126,8 @@
       <c r="D131" s="4">
         <v>258</v>
       </c>
-      <c r="E131" s="4">
-        <v>1.248</v>
+      <c r="E131" s="5">
+        <v>1248</v>
       </c>
       <c r="F131" s="4">
         <v>16</v>
@@ -6136,8 +6150,8 @@
       <c r="L131" s="4">
         <v>18</v>
       </c>
-      <c r="M131" s="5">
-        <v>1.982</v>
+      <c r="M131" s="6">
+        <v>1982</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6153,8 +6167,8 @@
       <c r="D132" s="4">
         <v>233</v>
       </c>
-      <c r="E132" s="4">
-        <v>1.2170000000000001</v>
+      <c r="E132" s="5">
+        <v>1217</v>
       </c>
       <c r="F132" s="4">
         <v>15</v>
@@ -6177,8 +6191,8 @@
       <c r="L132" s="4">
         <v>15</v>
       </c>
-      <c r="M132" s="5">
-        <v>1.883</v>
+      <c r="M132" s="6">
+        <v>1883</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6192,8 +6206,8 @@
       <c r="D133" s="4">
         <v>546</v>
       </c>
-      <c r="E133" s="4">
-        <v>1.4</v>
+      <c r="E133" s="5">
+        <v>1400</v>
       </c>
       <c r="F133" s="4">
         <v>11</v>
@@ -6216,47 +6230,47 @@
       <c r="L133" s="4">
         <v>25</v>
       </c>
-      <c r="M133" s="5">
-        <v>2.7160000000000002</v>
+      <c r="M133" s="6">
+        <v>2716</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.6579999999999999</v>
-      </c>
-      <c r="D134" s="5">
-        <v>2.306</v>
-      </c>
-      <c r="E134" s="5">
-        <v>17.193000000000001</v>
-      </c>
-      <c r="F134" s="5">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="G134" s="5">
-        <v>9.1609999999999996</v>
-      </c>
-      <c r="H134" s="5">
-        <v>17.321999999999999</v>
-      </c>
-      <c r="I134" s="5">
-        <v>11.438000000000001</v>
-      </c>
-      <c r="J134" s="5">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
+        <v>1658</v>
+      </c>
+      <c r="D134" s="6">
+        <v>2306</v>
+      </c>
+      <c r="E134" s="6">
+        <v>17193</v>
+      </c>
+      <c r="F134" s="6">
+        <v>4940</v>
+      </c>
+      <c r="G134" s="6">
+        <v>9161</v>
+      </c>
+      <c r="H134" s="6">
+        <v>17322</v>
+      </c>
+      <c r="I134" s="6">
+        <v>11438</v>
+      </c>
+      <c r="J134" s="6">
+        <v>1148</v>
+      </c>
+      <c r="K134" s="9">
         <v>112</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="9">
         <v>391</v>
       </c>
-      <c r="M134" s="5">
-        <v>65.668999999999997</v>
+      <c r="M134" s="6">
+        <v>65669</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6335,7 +6349,7 @@
       <c r="L136" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="9">
         <v>236</v>
       </c>
     </row>
@@ -6374,7 +6388,7 @@
       <c r="L137" s="4">
         <v>2</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="9">
         <v>194</v>
       </c>
     </row>
@@ -6415,7 +6429,7 @@
       <c r="L138" s="4">
         <v>1</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="9">
         <v>205</v>
       </c>
     </row>
@@ -6454,7 +6468,7 @@
       <c r="L139" s="4">
         <v>3</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="9">
         <v>128</v>
       </c>
     </row>
@@ -6495,7 +6509,7 @@
       <c r="L140" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="9">
         <v>171</v>
       </c>
     </row>
@@ -6534,7 +6548,7 @@
       <c r="L141" s="4">
         <v>3</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="9">
         <v>113</v>
       </c>
     </row>
@@ -6575,7 +6589,7 @@
       <c r="L142" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="9">
         <v>147</v>
       </c>
     </row>
@@ -6614,7 +6628,7 @@
       <c r="L143" s="4">
         <v>3</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="9">
         <v>113</v>
       </c>
     </row>
@@ -6655,7 +6669,7 @@
       <c r="L144" s="4">
         <v>3</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="9">
         <v>234</v>
       </c>
     </row>
@@ -6694,7 +6708,7 @@
       <c r="L145" s="4">
         <v>4</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="9">
         <v>124</v>
       </c>
     </row>
@@ -6735,7 +6749,7 @@
       <c r="L146" s="4">
         <v>1</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="9">
         <v>226</v>
       </c>
     </row>
@@ -6774,7 +6788,7 @@
       <c r="L147" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="9">
         <v>194</v>
       </c>
     </row>
@@ -6815,7 +6829,7 @@
       <c r="L148" s="4">
         <v>3</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="9">
         <v>253</v>
       </c>
     </row>
@@ -6854,7 +6868,7 @@
       <c r="L149" s="4">
         <v>1</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="9">
         <v>224</v>
       </c>
     </row>
@@ -6895,7 +6909,7 @@
       <c r="L150" s="4">
         <v>1</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="9">
         <v>283</v>
       </c>
     </row>
@@ -6934,7 +6948,7 @@
       <c r="L151" s="4">
         <v>1</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="9">
         <v>291</v>
       </c>
     </row>
@@ -6975,7 +6989,7 @@
       <c r="L152" s="4">
         <v>4</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="9">
         <v>322</v>
       </c>
     </row>
@@ -7014,7 +7028,7 @@
       <c r="L153" s="4">
         <v>5</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="9">
         <v>285</v>
       </c>
     </row>
@@ -7055,7 +7069,7 @@
       <c r="L154" s="4">
         <v>3</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="9">
         <v>263</v>
       </c>
     </row>
@@ -7094,7 +7108,7 @@
       <c r="L155" s="4">
         <v>1</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="9">
         <v>281</v>
       </c>
     </row>
@@ -7135,7 +7149,7 @@
       <c r="L156" s="4">
         <v>2</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="9">
         <v>203</v>
       </c>
     </row>
@@ -7174,7 +7188,7 @@
       <c r="L157" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="9">
         <v>202</v>
       </c>
     </row>
@@ -7215,7 +7229,7 @@
       <c r="L158" s="4">
         <v>1</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="9">
         <v>246</v>
       </c>
     </row>
@@ -7254,7 +7268,7 @@
       <c r="L159" s="4">
         <v>2</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="9">
         <v>346</v>
       </c>
     </row>
@@ -7262,39 +7276,39 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="9">
         <v>85</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="9">
         <v>160</v>
       </c>
-      <c r="E160" s="5">
-        <v>2.3380000000000001</v>
-      </c>
-      <c r="F160" s="5">
+      <c r="E160" s="6">
+        <v>2338</v>
+      </c>
+      <c r="F160" s="9">
         <v>565</v>
       </c>
-      <c r="G160" s="5">
+      <c r="G160" s="9">
         <v>695</v>
       </c>
-      <c r="H160" s="5">
+      <c r="H160" s="9">
         <v>996</v>
       </c>
-      <c r="I160" s="5">
+      <c r="I160" s="9">
         <v>369</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="9">
         <v>29</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="9">
         <v>3</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="9">
         <v>44</v>
       </c>
-      <c r="M160" s="5">
-        <v>5.2839999999999998</v>
+      <c r="M160" s="6">
+        <v>5284</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7373,7 +7387,7 @@
       <c r="L162" s="4">
         <v>1</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="9">
         <v>384</v>
       </c>
     </row>
@@ -7412,7 +7426,7 @@
       <c r="L163" s="4">
         <v>2</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="9">
         <v>349</v>
       </c>
     </row>
@@ -7453,7 +7467,7 @@
       <c r="L164" s="4">
         <v>2</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="9">
         <v>304</v>
       </c>
     </row>
@@ -7492,7 +7506,7 @@
       <c r="L165" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="9">
         <v>197</v>
       </c>
     </row>
@@ -7533,7 +7547,7 @@
       <c r="L166" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="9">
         <v>257</v>
       </c>
     </row>
@@ -7572,7 +7586,7 @@
       <c r="L167" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="9">
         <v>234</v>
       </c>
     </row>
@@ -7613,7 +7627,7 @@
       <c r="L168" s="4">
         <v>2</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="9">
         <v>296</v>
       </c>
     </row>
@@ -7652,7 +7666,7 @@
       <c r="L169" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="9">
         <v>211</v>
       </c>
     </row>
@@ -7693,7 +7707,7 @@
       <c r="L170" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="9">
         <v>329</v>
       </c>
     </row>
@@ -7732,7 +7746,7 @@
       <c r="L171" s="4">
         <v>1</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="9">
         <v>283</v>
       </c>
     </row>
@@ -7773,7 +7787,7 @@
       <c r="L172" s="4">
         <v>1</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="9">
         <v>419</v>
       </c>
     </row>
@@ -7812,7 +7826,7 @@
       <c r="L173" s="4">
         <v>1</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="9">
         <v>306</v>
       </c>
     </row>
@@ -7853,7 +7867,7 @@
       <c r="L174" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="9">
         <v>486</v>
       </c>
     </row>
@@ -7892,7 +7906,7 @@
       <c r="L175" s="4">
         <v>1</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="9">
         <v>469</v>
       </c>
     </row>
@@ -7933,7 +7947,7 @@
       <c r="L176" s="4">
         <v>2</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="9">
         <v>666</v>
       </c>
     </row>
@@ -7972,7 +7986,7 @@
       <c r="L177" s="4">
         <v>2</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="9">
         <v>664</v>
       </c>
     </row>
@@ -8013,7 +8027,7 @@
       <c r="L178" s="4">
         <v>1</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="9">
         <v>727</v>
       </c>
     </row>
@@ -8052,7 +8066,7 @@
       <c r="L179" s="4">
         <v>5</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="9">
         <v>739</v>
       </c>
     </row>
@@ -8093,7 +8107,7 @@
       <c r="L180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="9">
         <v>638</v>
       </c>
     </row>
@@ -8132,7 +8146,7 @@
       <c r="L181" s="4">
         <v>1</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="9">
         <v>621</v>
       </c>
     </row>
@@ -8173,7 +8187,7 @@
       <c r="L182" s="4">
         <v>3</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="9">
         <v>562</v>
       </c>
     </row>
@@ -8212,7 +8226,7 @@
       <c r="L183" s="4">
         <v>1</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="9">
         <v>583</v>
       </c>
     </row>
@@ -8253,7 +8267,7 @@
       <c r="L184" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="9">
         <v>583</v>
       </c>
     </row>
@@ -8292,7 +8306,7 @@
       <c r="L185" s="4">
         <v>3</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="9">
         <v>848</v>
       </c>
     </row>
@@ -8300,39 +8314,39 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="9">
         <v>501</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="9">
         <v>885</v>
       </c>
-      <c r="E186" s="5">
-        <v>4.9260000000000002</v>
-      </c>
-      <c r="F186" s="5">
+      <c r="E186" s="6">
+        <v>4926</v>
+      </c>
+      <c r="F186" s="9">
         <v>814</v>
       </c>
-      <c r="G186" s="5">
-        <v>1.5589999999999999</v>
-      </c>
-      <c r="H186" s="5">
-        <v>1.667</v>
-      </c>
-      <c r="I186" s="5">
+      <c r="G186" s="6">
+        <v>1559</v>
+      </c>
+      <c r="H186" s="6">
+        <v>1667</v>
+      </c>
+      <c r="I186" s="9">
         <v>727</v>
       </c>
-      <c r="J186" s="5">
+      <c r="J186" s="9">
         <v>45</v>
       </c>
-      <c r="K186" s="5">
-        <v>2</v>
-      </c>
-      <c r="L186" s="5">
+      <c r="K186" s="9">
+        <v>2</v>
+      </c>
+      <c r="L186" s="9">
         <v>29</v>
       </c>
-      <c r="M186" s="5">
-        <v>11.154999999999999</v>
+      <c r="M186" s="6">
+        <v>11155</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8411,7 +8425,7 @@
       <c r="L188" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="9">
         <v>311</v>
       </c>
     </row>
@@ -8450,7 +8464,7 @@
       <c r="L189" s="4">
         <v>2</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="9">
         <v>204</v>
       </c>
     </row>
@@ -8491,7 +8505,7 @@
       <c r="L190" s="4">
         <v>1</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="9">
         <v>267</v>
       </c>
     </row>
@@ -8530,7 +8544,7 @@
       <c r="L191" s="4">
         <v>4</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="9">
         <v>199</v>
       </c>
     </row>
@@ -8571,7 +8585,7 @@
       <c r="L192" s="4">
         <v>1</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="9">
         <v>254</v>
       </c>
     </row>
@@ -8610,7 +8624,7 @@
       <c r="L193" s="4">
         <v>2</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="9">
         <v>166</v>
       </c>
     </row>
@@ -8651,7 +8665,7 @@
       <c r="L194" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="9">
         <v>150</v>
       </c>
     </row>
@@ -8690,7 +8704,7 @@
       <c r="L195" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="9">
         <v>107</v>
       </c>
     </row>
@@ -8731,7 +8745,7 @@
       <c r="L196" s="4">
         <v>1</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="9">
         <v>199</v>
       </c>
     </row>
@@ -8770,7 +8784,7 @@
       <c r="L197" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="9">
         <v>127</v>
       </c>
     </row>
@@ -8811,7 +8825,7 @@
       <c r="L198" s="4">
         <v>1</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="9">
         <v>189</v>
       </c>
     </row>
@@ -8850,7 +8864,7 @@
       <c r="L199" s="4">
         <v>2</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="9">
         <v>143</v>
       </c>
     </row>
@@ -8891,7 +8905,7 @@
       <c r="L200" s="4">
         <v>3</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="9">
         <v>181</v>
       </c>
     </row>
@@ -8930,7 +8944,7 @@
       <c r="L201" s="4">
         <v>3</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="9">
         <v>175</v>
       </c>
     </row>
@@ -8971,7 +8985,7 @@
       <c r="L202" s="4">
         <v>1</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="9">
         <v>212</v>
       </c>
     </row>
@@ -9010,7 +9024,7 @@
       <c r="L203" s="4">
         <v>1</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="9">
         <v>190</v>
       </c>
     </row>
@@ -9051,7 +9065,7 @@
       <c r="L204" s="4">
         <v>1</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="9">
         <v>236</v>
       </c>
     </row>
@@ -9090,7 +9104,7 @@
       <c r="L205" s="4">
         <v>1</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="9">
         <v>272</v>
       </c>
     </row>
@@ -9131,7 +9145,7 @@
       <c r="L206" s="4">
         <v>1</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="9">
         <v>243</v>
       </c>
     </row>
@@ -9170,7 +9184,7 @@
       <c r="L207" s="4">
         <v>1</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="9">
         <v>250</v>
       </c>
     </row>
@@ -9211,7 +9225,7 @@
       <c r="L208" s="4">
         <v>1</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="9">
         <v>225</v>
       </c>
     </row>
@@ -9250,7 +9264,7 @@
       <c r="L209" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="9">
         <v>222</v>
       </c>
     </row>
@@ -9291,7 +9305,7 @@
       <c r="L210" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="9">
         <v>206</v>
       </c>
     </row>
@@ -9330,7 +9344,7 @@
       <c r="L211" s="4">
         <v>3</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="9">
         <v>302</v>
       </c>
     </row>
@@ -9338,39 +9352,39 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="9">
         <v>87</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="9">
         <v>149</v>
       </c>
-      <c r="E212" s="5">
-        <v>1.903</v>
-      </c>
-      <c r="F212" s="5">
+      <c r="E212" s="6">
+        <v>1903</v>
+      </c>
+      <c r="F212" s="9">
         <v>407</v>
       </c>
-      <c r="G212" s="5">
+      <c r="G212" s="9">
         <v>616</v>
       </c>
-      <c r="H212" s="5">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="I212" s="5">
+      <c r="H212" s="6">
+        <v>1233</v>
+      </c>
+      <c r="I212" s="9">
         <v>568</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="9">
         <v>33</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="9">
         <v>4</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="9">
         <v>30</v>
       </c>
-      <c r="M212" s="5">
-        <v>5.03</v>
+      <c r="M212" s="6">
+        <v>5030</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9434,8 +9448,8 @@
       <c r="G214" s="4">
         <v>610</v>
       </c>
-      <c r="H214" s="4">
-        <v>1.196</v>
+      <c r="H214" s="5">
+        <v>1196</v>
       </c>
       <c r="I214" s="4">
         <v>296</v>
@@ -9449,8 +9463,8 @@
       <c r="L214" s="4">
         <v>27</v>
       </c>
-      <c r="M214" s="5">
-        <v>2.2170000000000001</v>
+      <c r="M214" s="6">
+        <v>2217</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9473,8 +9487,8 @@
       <c r="G215" s="4">
         <v>499</v>
       </c>
-      <c r="H215" s="4">
-        <v>1.147</v>
+      <c r="H215" s="5">
+        <v>1147</v>
       </c>
       <c r="I215" s="4">
         <v>457</v>
@@ -9488,8 +9502,8 @@
       <c r="L215" s="4">
         <v>4</v>
       </c>
-      <c r="M215" s="5">
-        <v>2.226</v>
+      <c r="M215" s="6">
+        <v>2226</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9529,8 +9543,8 @@
       <c r="L216" s="4">
         <v>12</v>
       </c>
-      <c r="M216" s="5">
-        <v>1.7529999999999999</v>
+      <c r="M216" s="6">
+        <v>1753</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9568,8 +9582,8 @@
       <c r="L217" s="4">
         <v>5</v>
       </c>
-      <c r="M217" s="5">
-        <v>1.5980000000000001</v>
+      <c r="M217" s="6">
+        <v>1598</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9609,8 +9623,8 @@
       <c r="L218" s="4">
         <v>6</v>
       </c>
-      <c r="M218" s="5">
-        <v>1.6479999999999999</v>
+      <c r="M218" s="6">
+        <v>1648</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9648,8 +9662,8 @@
       <c r="L219" s="4">
         <v>7</v>
       </c>
-      <c r="M219" s="5">
-        <v>1.4830000000000001</v>
+      <c r="M219" s="6">
+        <v>1483</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9689,8 +9703,8 @@
       <c r="L220" s="4">
         <v>8</v>
       </c>
-      <c r="M220" s="5">
-        <v>1.7230000000000001</v>
+      <c r="M220" s="6">
+        <v>1723</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9728,8 +9742,8 @@
       <c r="L221" s="4">
         <v>6</v>
       </c>
-      <c r="M221" s="5">
-        <v>1.645</v>
+      <c r="M221" s="6">
+        <v>1645</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9769,8 +9783,8 @@
       <c r="L222" s="4">
         <v>12</v>
       </c>
-      <c r="M222" s="5">
-        <v>1.905</v>
+      <c r="M222" s="6">
+        <v>1905</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9808,8 +9822,8 @@
       <c r="L223" s="4">
         <v>11</v>
       </c>
-      <c r="M223" s="5">
-        <v>1.7849999999999999</v>
+      <c r="M223" s="6">
+        <v>1785</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9849,8 +9863,8 @@
       <c r="L224" s="4">
         <v>4</v>
       </c>
-      <c r="M224" s="5">
-        <v>1.9330000000000001</v>
+      <c r="M224" s="6">
+        <v>1933</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9888,8 +9902,8 @@
       <c r="L225" s="4">
         <v>11</v>
       </c>
-      <c r="M225" s="5">
-        <v>1.9610000000000001</v>
+      <c r="M225" s="6">
+        <v>1961</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9929,8 +9943,8 @@
       <c r="L226" s="4">
         <v>15</v>
       </c>
-      <c r="M226" s="5">
-        <v>2.0590000000000002</v>
+      <c r="M226" s="6">
+        <v>2059</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9968,8 +9982,8 @@
       <c r="L227" s="4">
         <v>14</v>
       </c>
-      <c r="M227" s="5">
-        <v>2.0649999999999999</v>
+      <c r="M227" s="6">
+        <v>2065</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10009,8 +10023,8 @@
       <c r="L228" s="4">
         <v>22</v>
       </c>
-      <c r="M228" s="5">
-        <v>2.258</v>
+      <c r="M228" s="6">
+        <v>2258</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10024,8 +10038,8 @@
       <c r="D229" s="4">
         <v>67</v>
       </c>
-      <c r="E229" s="4">
-        <v>1.413</v>
+      <c r="E229" s="5">
+        <v>1413</v>
       </c>
       <c r="F229" s="4">
         <v>228</v>
@@ -10048,8 +10062,8 @@
       <c r="L229" s="4">
         <v>16</v>
       </c>
-      <c r="M229" s="5">
-        <v>2.5059999999999998</v>
+      <c r="M229" s="6">
+        <v>2506</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10065,8 +10079,8 @@
       <c r="D230" s="4">
         <v>39</v>
       </c>
-      <c r="E230" s="4">
-        <v>1.345</v>
+      <c r="E230" s="5">
+        <v>1345</v>
       </c>
       <c r="F230" s="4">
         <v>306</v>
@@ -10089,8 +10103,8 @@
       <c r="L230" s="4">
         <v>21</v>
       </c>
-      <c r="M230" s="5">
-        <v>2.5640000000000001</v>
+      <c r="M230" s="6">
+        <v>2564</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10104,8 +10118,8 @@
       <c r="D231" s="4">
         <v>89</v>
       </c>
-      <c r="E231" s="4">
-        <v>1.8009999999999999</v>
+      <c r="E231" s="5">
+        <v>1801</v>
       </c>
       <c r="F231" s="4">
         <v>101</v>
@@ -10128,8 +10142,8 @@
       <c r="L231" s="4">
         <v>16</v>
       </c>
-      <c r="M231" s="5">
-        <v>2.5790000000000002</v>
+      <c r="M231" s="6">
+        <v>2579</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10145,8 +10159,8 @@
       <c r="D232" s="4">
         <v>61</v>
       </c>
-      <c r="E232" s="4">
-        <v>1.369</v>
+      <c r="E232" s="5">
+        <v>1369</v>
       </c>
       <c r="F232" s="4">
         <v>119</v>
@@ -10169,8 +10183,8 @@
       <c r="L232" s="4">
         <v>14</v>
       </c>
-      <c r="M232" s="5">
-        <v>2.1549999999999998</v>
+      <c r="M232" s="6">
+        <v>2155</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10184,8 +10198,8 @@
       <c r="D233" s="4">
         <v>111</v>
       </c>
-      <c r="E233" s="4">
-        <v>1.71</v>
+      <c r="E233" s="5">
+        <v>1710</v>
       </c>
       <c r="F233" s="4">
         <v>25</v>
@@ -10208,8 +10222,8 @@
       <c r="L233" s="4">
         <v>14</v>
       </c>
-      <c r="M233" s="5">
-        <v>2.3050000000000002</v>
+      <c r="M233" s="6">
+        <v>2305</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10225,8 +10239,8 @@
       <c r="D234" s="4">
         <v>75</v>
       </c>
-      <c r="E234" s="4">
-        <v>1.2170000000000001</v>
+      <c r="E234" s="5">
+        <v>1217</v>
       </c>
       <c r="F234" s="4">
         <v>52</v>
@@ -10249,8 +10263,8 @@
       <c r="L234" s="4">
         <v>17</v>
       </c>
-      <c r="M234" s="5">
-        <v>1.665</v>
+      <c r="M234" s="6">
+        <v>1665</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10264,8 +10278,8 @@
       <c r="D235" s="4">
         <v>152</v>
       </c>
-      <c r="E235" s="4">
-        <v>1.3320000000000001</v>
+      <c r="E235" s="5">
+        <v>1332</v>
       </c>
       <c r="F235" s="4">
         <v>7</v>
@@ -10288,8 +10302,8 @@
       <c r="L235" s="4">
         <v>18</v>
       </c>
-      <c r="M235" s="5">
-        <v>1.8240000000000001</v>
+      <c r="M235" s="6">
+        <v>1824</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10305,8 +10319,8 @@
       <c r="D236" s="4">
         <v>198</v>
       </c>
-      <c r="E236" s="4">
-        <v>1.4430000000000001</v>
+      <c r="E236" s="5">
+        <v>1443</v>
       </c>
       <c r="F236" s="4">
         <v>17</v>
@@ -10329,8 +10343,8 @@
       <c r="L236" s="4">
         <v>24</v>
       </c>
-      <c r="M236" s="5">
-        <v>1.9610000000000001</v>
+      <c r="M236" s="6">
+        <v>1961</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10344,8 +10358,8 @@
       <c r="D237" s="4">
         <v>457</v>
       </c>
-      <c r="E237" s="4">
-        <v>1.875</v>
+      <c r="E237" s="5">
+        <v>1875</v>
       </c>
       <c r="F237" s="4">
         <v>5</v>
@@ -10368,47 +10382,57 @@
       <c r="L237" s="4">
         <v>28</v>
       </c>
-      <c r="M237" s="5">
-        <v>2.89</v>
+      <c r="M237" s="6">
+        <v>2890</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>1.431</v>
-      </c>
-      <c r="D238" s="5">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="E238" s="5">
-        <v>18.434999999999999</v>
-      </c>
-      <c r="F238" s="5">
-        <v>4.2039999999999997</v>
-      </c>
-      <c r="G238" s="5">
-        <v>5.9249999999999998</v>
-      </c>
-      <c r="H238" s="5">
-        <v>10.175000000000001</v>
-      </c>
-      <c r="I238" s="5">
-        <v>5.891</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
+        <v>1431</v>
+      </c>
+      <c r="D238" s="6">
+        <v>1765</v>
+      </c>
+      <c r="E238" s="6">
+        <v>18435</v>
+      </c>
+      <c r="F238" s="6">
+        <v>4204</v>
+      </c>
+      <c r="G238" s="6">
+        <v>5925</v>
+      </c>
+      <c r="H238" s="6">
+        <v>10175</v>
+      </c>
+      <c r="I238" s="6">
+        <v>5891</v>
+      </c>
+      <c r="J238" s="9">
         <v>515</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="9">
         <v>35</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="9">
         <v>332</v>
       </c>
-      <c r="M238" s="5">
-        <v>48.707999999999998</v>
+      <c r="M238" s="6">
+        <v>48708</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A239" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A240" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
